--- a/Paint Booth Data Logging 3.xlsx
+++ b/Paint Booth Data Logging 3.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F1FDD8-AD41-4880-BC85-8D0391ADD3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OEE" sheetId="1" r:id="rId1"/>
@@ -13,8 +12,8 @@
     <sheet name="Format" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -539,8 +538,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,6 +791,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,14 +814,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{18C9A15F-27F5-4709-92EB-1A224CCC1A25}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
@@ -865,21 +864,11 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -908,15 +897,12 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:view3D>
       <c:rotX val="30"/>
-      <c:rotY val="0"/>
       <c:depthPercent val="100"/>
-      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:floor>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -927,7 +913,6 @@
       </c:spPr>
     </c:floor>
     <c:sideWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -938,7 +923,6 @@
       </c:spPr>
     </c:sideWall>
     <c:backWall>
-      <c:thickness val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -968,7 +952,6 @@
           </c:tx>
           <c:dPt>
             <c:idx val="0"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
@@ -985,7 +968,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-69F1-4FC7-BB33-FD38B5A1D530}"/>
               </c:ext>
@@ -993,7 +976,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
@@ -1010,7 +992,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-69F1-4FC7-BB33-FD38B5A1D530}"/>
               </c:ext>
@@ -1018,7 +1000,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
@@ -1035,7 +1016,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-69F1-4FC7-BB33-FD38B5A1D530}"/>
               </c:ext>
@@ -1043,7 +1024,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
@@ -1060,7 +1040,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-69F1-4FC7-BB33-FD38B5A1D530}"/>
               </c:ext>
@@ -1068,7 +1048,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
@@ -1085,7 +1064,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-69F1-4FC7-BB33-FD38B5A1D530}"/>
               </c:ext>
@@ -1093,7 +1072,6 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
-            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
@@ -1110,7 +1088,7 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-69F1-4FC7-BB33-FD38B5A1D530}"/>
               </c:ext>
@@ -1169,21 +1147,13 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6CFD-4B49-A931-CBDB4D341357}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
+        <c:dLbls/>
       </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
@@ -1195,7 +1165,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:overlay val="0"/>
+      <c:layout/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1225,15 +1195,14 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1262,569 +1231,10 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1847,7 +1257,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A42E05C-5E67-49D7-8522-F8A365C5CC04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A42E05C-5E67-49D7-8522-F8A365C5CC04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1911,7 +1321,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1946,7 +1356,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2123,47 +1533,47 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I49"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C12" sqref="C12:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="67.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="25"/>
       <c r="B4" s="5" t="s">
         <v>40</v>
@@ -2172,7 +1582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="26" t="s">
         <v>41</v>
       </c>
@@ -2183,7 +1593,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="26" t="s">
         <v>60</v>
       </c>
@@ -2194,7 +1604,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="26" t="s">
         <v>42</v>
       </c>
@@ -2205,7 +1615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="26" t="s">
         <v>43</v>
       </c>
@@ -2216,7 +1626,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -2227,7 +1637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="26" t="s">
         <v>48</v>
       </c>
@@ -2238,7 +1648,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="26" t="s">
         <v>49</v>
       </c>
@@ -2249,7 +1659,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="26" t="s">
         <v>34</v>
       </c>
@@ -2257,11 +1667,11 @@
         <f>B8/B9*1000000</f>
         <v>5067.5675675675675</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="29" t="s">
         <v>36</v>
       </c>
@@ -2269,9 +1679,9 @@
         <f>B10/B11*100</f>
         <v>6.5217391304347823</v>
       </c>
-      <c r="C13" s="44"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="45"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="29" t="s">
         <v>35</v>
       </c>
@@ -2279,9 +1689,9 @@
         <f>B9/B7*100</f>
         <v>98.666666666666671</v>
       </c>
-      <c r="C14" s="44"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" s="45"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="29" t="s">
         <v>37</v>
       </c>
@@ -2289,9 +1699,9 @@
         <f>(B11-B10)/B11*100</f>
         <v>93.478260869565219</v>
       </c>
-      <c r="C15" s="44"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="45"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="29" t="s">
         <v>38</v>
       </c>
@@ -2299,9 +1709,9 @@
         <f>(B9-B8)/B9*100</f>
         <v>99.493243243243242</v>
       </c>
-      <c r="C16" s="44"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="45"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="29" t="s">
         <v>39</v>
       </c>
@@ -2309,22 +1719,22 @@
         <f>B14*B15*B16/10000</f>
         <v>91.764492753623188</v>
       </c>
-      <c r="C17" s="44"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C17" s="45"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.4">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+    </row>
+    <row r="20" spans="1:4" ht="27.6">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2338,7 +1748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +1762,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -2366,7 +1776,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +1790,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>6</v>
       </c>
@@ -2394,7 +1804,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
@@ -2408,7 +1818,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -2422,7 +1832,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -2436,7 +1846,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +1860,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>2</v>
       </c>
@@ -2464,7 +1874,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +1887,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="B31" s="5" t="s">
         <v>9</v>
       </c>
@@ -2490,21 +1900,21 @@
         <v>6.1888888888888891</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="12" customFormat="1">
       <c r="A34" s="21" t="s">
         <v>64</v>
       </c>
@@ -2522,7 +1932,7 @@
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="22" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +1948,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="16"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="22" t="s">
         <v>21</v>
       </c>
@@ -2554,7 +1964,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="16"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="22" t="s">
         <v>22</v>
       </c>
@@ -2570,7 +1980,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="16"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="22" t="s">
         <v>23</v>
       </c>
@@ -2586,7 +1996,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="16"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="22" t="s">
         <v>24</v>
       </c>
@@ -2602,7 +2012,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="16"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="22" t="s">
         <v>25</v>
       </c>
@@ -2618,16 +2028,16 @@
       <c r="H40" s="15"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="C41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="15"/>
       <c r="I41" s="16"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
@@ -2643,7 +2053,7 @@
         <v>2.979550894703076E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>17</v>
       </c>
@@ -2651,7 +2061,7 @@
         <v>4.5866563392060217E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
         <v>18</v>
       </c>
@@ -2659,7 +2069,7 @@
         <v>0.17470747362008632</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
@@ -2667,7 +2077,7 @@
         <v>0.26307422174288586</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
@@ -2675,7 +2085,7 @@
         <v>0.35054555595131032</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2706,47 +2116,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09947805-9119-4169-819C-C88806A5FDEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="31.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="37"/>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
         <v>76</v>
       </c>
@@ -2757,7 +2167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8">
       <c r="A6" s="32">
         <v>1</v>
       </c>
@@ -2777,7 +2187,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.2">
       <c r="A7" s="32">
         <v>2</v>
       </c>
@@ -2797,7 +2207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="32">
         <v>3</v>
       </c>
@@ -2808,7 +2218,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="32">
         <v>4</v>
       </c>
@@ -2818,13 +2228,13 @@
       <c r="C9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="49">
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="42">
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
@@ -2840,7 +2250,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="32">
         <v>6</v>
       </c>
@@ -2857,8 +2267,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="49">
+    <row r="12" spans="1:7">
+      <c r="A12" s="42">
         <v>7</v>
       </c>
       <c r="B12" s="34" t="s">
@@ -2874,7 +2284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="32">
         <v>8</v>
       </c>
@@ -2885,8 +2295,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+    <row r="14" spans="1:7">
+      <c r="A14" s="42">
         <v>9</v>
       </c>
       <c r="B14" s="34" t="s">
@@ -2899,7 +2309,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="32">
         <v>10</v>
       </c>
@@ -2913,8 +2323,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+    <row r="16" spans="1:7">
+      <c r="A16" s="42">
         <v>11</v>
       </c>
       <c r="B16" s="34" t="s">
@@ -2927,7 +2337,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="32">
         <v>12</v>
       </c>
@@ -2941,7 +2351,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="32">
         <v>13</v>
       </c>
@@ -2967,51 +2377,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B27BB1-CBA6-4CAC-8300-2AD07E5B5A74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AE10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="38"/>
-    <col min="4" max="4" width="15.85546875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="38" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="38"/>
+    <col min="4" max="4" width="15.88671875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="38" customWidth="1"/>
     <col min="10" max="10" width="14" style="38" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="14" style="38" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="38" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="29" style="38" customWidth="1"/>
-    <col min="16" max="16" width="25.42578125" style="38" customWidth="1"/>
-    <col min="17" max="19" width="17.42578125" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.44140625" style="38" customWidth="1"/>
+    <col min="17" max="19" width="17.44140625" style="38" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="14" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.28515625" style="38" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.42578125" style="38" customWidth="1"/>
-    <col min="25" max="25" width="16.7109375" style="38" customWidth="1"/>
-    <col min="26" max="28" width="10.7109375" style="38" customWidth="1"/>
-    <col min="29" max="29" width="13.28515625" style="38" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="38" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="38" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="38"/>
+    <col min="22" max="22" width="16.33203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.88671875" style="38" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.44140625" style="38" customWidth="1"/>
+    <col min="25" max="25" width="16.6640625" style="38" customWidth="1"/>
+    <col min="26" max="28" width="10.6640625" style="38" customWidth="1"/>
+    <col min="29" max="29" width="13.33203125" style="38" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="38" customWidth="1"/>
+    <col min="31" max="31" width="10.6640625" style="38" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
+    <row r="2" spans="1:31">
+      <c r="B2" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:31" ht="28.8">
       <c r="D3" s="41" t="s">
         <v>89</v>
       </c>
@@ -3097,7 +2507,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="28.8">
       <c r="B4" s="31" t="s">
         <v>91</v>
       </c>
@@ -3189,7 +2599,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" s="38" t="s">
         <v>103</v>
       </c>
@@ -3272,7 +2682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="B6" s="39">
         <v>45751</v>
       </c>
@@ -3360,7 +2770,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -3392,7 +2802,7 @@
       <c r="AD7" s="31"/>
       <c r="AE7" s="31"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31">
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -3424,7 +2834,7 @@
       <c r="AD8" s="31"/>
       <c r="AE8" s="31"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -3456,7 +2866,7 @@
       <c r="AD9" s="31"/>
       <c r="AE9" s="31"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31">
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
